--- a/public/cohort/fileExcel/xlsxUIT/OPEN/WD_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/WD_OPEN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -894,16 +894,19 @@
     <t>startJaar</t>
   </si>
   <si>
-    <t>Blok 2: Oppervlakte en inhoud</t>
+    <t>Blok 2: Oppervlakte en inhoud + Blok 6: Ruimtelijke figuren</t>
   </si>
   <si>
-    <t>A1, A2, A3 en C1</t>
+    <t>A1, A2, A3 ,C1 en C2</t>
   </si>
   <si>
     <t>cid</t>
   </si>
   <si>
-    <t>Blok 3: Kansrekening</t>
+    <t>Blok 3: Kansrekening + Blok 5: Discrete kansmodellen</t>
+  </si>
+  <si>
+    <t>A1, A2, A3, B2, B3,B4 en B6</t>
   </si>
   <si>
     <t>eindJaar</t>
@@ -918,19 +921,7 @@
     <t>vandaag</t>
   </si>
   <si>
-    <t>Blok 5: Discrete kansmodellen</t>
-  </si>
-  <si>
-    <t>A1, A2, A3, B2, B4 en B6</t>
-  </si>
-  <si>
     <t>huidigStartjaar</t>
-  </si>
-  <si>
-    <t>Blok 6: Ruimtelijke figuren</t>
-  </si>
-  <si>
-    <t>A1, A2, A3 en C2</t>
   </si>
   <si>
     <t>huidigSchooljaar</t>
@@ -942,10 +933,52 @@
     <t>groep</t>
   </si>
   <si>
+    <t>Bij tt vervangt de grafieschr rekenmachine de gewone rekenmachine als toegestaan hulpmiddel. stopf uit al behandelde blokken wordt bekend verondersteld en kan terug gevraagd worden.</t>
+  </si>
+  <si>
     <t>mavo?</t>
   </si>
   <si>
+    <t>Blok 2: Oppervlakte en inhoud</t>
+  </si>
+  <si>
+    <t>A1, A2, A3 en C1</t>
+  </si>
+  <si>
+    <t>Blok 3: Kansrekening</t>
+  </si>
+  <si>
+    <t>Blok 5: Discrete kansmodellen</t>
+  </si>
+  <si>
+    <t>A1, A2, A3, B2, B4 en B6</t>
+  </si>
+  <si>
+    <t>Blok 6: Ruimtelijke figuren</t>
+  </si>
+  <si>
+    <t>A1, A2, A3 en C2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bij de tt vervangt de grafische rekenmachine de gewone rekenmachine als toegestaan hulpmiddel. Stof uit al behandelde blokken wordt bekend verondersteld en kan teruggevraagd worden.  </t>
+  </si>
+  <si>
+    <t>Blok 7: Continue kansmodellen  en Blok 8: Toetsen en verbanden</t>
+  </si>
+  <si>
+    <t>A1, A2, A3, B1, B2, B4, B5 en B6</t>
+  </si>
+  <si>
+    <t>Blok 9: Lineair programmeren</t>
+  </si>
+  <si>
+    <t>A1, A2, A3, D en E</t>
+  </si>
+  <si>
+    <t>Blok 10: Modelleren en Blok 11: Meetkundige berekeningen</t>
+  </si>
+  <si>
+    <t>A1, A2, A3,  C3, C4, D en E</t>
   </si>
   <si>
     <t xml:space="preserve">Blok 7: Continue kansmodellen </t>
@@ -958,12 +991,6 @@
   </si>
   <si>
     <t>A1, A2, A3, B2, B4, B5 en B6</t>
-  </si>
-  <si>
-    <t>Blok 9: Lineair programmeren</t>
-  </si>
-  <si>
-    <t>A1, A2, A3, D en E</t>
   </si>
   <si>
     <t>Blok 11: Meetkundige berekeningen</t>
@@ -987,7 +1014,25 @@
     <t>A1, A2, A3, B1 en B2</t>
   </si>
   <si>
+    <t>Blok 3: Binomiale verdeling + Blok 5: Normale verdeling</t>
+  </si>
+  <si>
+    <t>A1, A2, A3, B2,B3 en B4</t>
+  </si>
+  <si>
     <t>Blok 2: Grafen</t>
+  </si>
+  <si>
+    <t>A1 , A2, A3  en G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blok 4: Inproduct + Blok 6: Discrete dynamische modellen </t>
+  </si>
+  <si>
+    <t>A1, A2, A3, C1, C3,D1 en D3</t>
+  </si>
+  <si>
+    <t>Bij tt vervangt de grafische rekenmachine de gewone rekenmachineals toegestaan hulpmiddel. Stof uit al behandelde blokken wordtbekend verondersteld en kan teruggvraagd worden.</t>
   </si>
   <si>
     <t>A1, A2, A3 en G</t>
@@ -1023,10 +1068,28 @@
     <t xml:space="preserve">Blok 7: Cryptografie </t>
   </si>
   <si>
-    <t xml:space="preserve">Blok 9: Complexe getallen </t>
+    <t>Blok 8: Correlatie en regressie en Blok 10: Hypothese toetsen</t>
   </si>
   <si>
     <t>Formuleblad</t>
+  </si>
+  <si>
+    <t>A1, A2, A3, B4, B5, B6 en F</t>
+  </si>
+  <si>
+    <t>Blok 12: Geschiedenis van de wiskunde</t>
+  </si>
+  <si>
+    <t>A1, A2, A3, F en G</t>
+  </si>
+  <si>
+    <t>Blok 9: Vlakke meetkunde en Blok 11: Kegelsneden</t>
+  </si>
+  <si>
+    <t>A1, A2, A3, D1, D2, D3 en D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blok 9: Complexe getallen </t>
   </si>
   <si>
     <t>A1, A2, A3, E1 en E2</t>
@@ -1059,6 +1122,27 @@
     <t xml:space="preserve">Bij de tt vervangt de grafische rekenmachine de gewone rekenmachine als toegestaan hulpmiddel. Stof uit al behandelde blokken wordt bekend verondersteld en kan teruggvraagd worden. </t>
   </si>
   <si>
+    <t>Blok: Kegelsneden</t>
+  </si>
+  <si>
+    <t>A1, A2, A3, D2 en D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blokken: Poissonverdelingen + Correlatie en regressie </t>
+  </si>
+  <si>
+    <t>A1, A2, A3, B4,B6 en F</t>
+  </si>
+  <si>
+    <t>Blok: Niet-Euclidische meetkunde</t>
+  </si>
+  <si>
+    <t>Blok: Geschiedenis van de wiskunde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bij de tt vervangt de grafische rekenmachine de gewone rekenmachine als toegestaan hulpmiddel. Stof uit al behandelde blokken wordt bekend verondersteld en kan teruggvraagd worden. </t>
+  </si>
+  <si>
     <t>Blok 13: Poissonverdeling</t>
   </si>
   <si>
@@ -1072,9 +1156,6 @@
   </si>
   <si>
     <t>Blok 16: Niet-Euclidische meetkunde</t>
-  </si>
-  <si>
-    <t>A1, A2, A3, F en G</t>
   </si>
   <si>
     <t>Blok 14: Continue dynamische modellen</t>
@@ -2485,7 +2566,7 @@
         <v>2</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P6" s="32" t="s">
         <v>64</v>
@@ -2569,23 +2650,23 @@
         <v>66</v>
       </c>
       <c r="I7" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="45">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M7" s="27" t="s">
         <v>8</v>
       </c>
       <c r="N7" s="46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P7" s="32" t="s">
         <v>67</v>
@@ -2663,32 +2744,32 @@
       </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
         <v>69</v>
       </c>
       <c r="I8" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="45">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M8" s="27" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -2753,7 +2834,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -2764,10 +2845,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I9" s="45">
         <v>1</v>
@@ -2786,10 +2867,10 @@
         <v>2</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -2854,44 +2935,32 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602291667</v>
-      </c>
-      <c r="D10" s="2">
-        <v>816</v>
-      </c>
+        <v>44385.633344907</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>4</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="45">
-        <v>1</v>
-      </c>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="45">
-        <v>50</v>
-      </c>
+      <c r="L10" s="45"/>
       <c r="M10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="46">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="32" t="s">
-        <v>75</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2955,44 +3024,32 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2">
-        <v>817</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="G11" s="27">
-        <v>4</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" s="45">
-        <v>1</v>
-      </c>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="45"/>
       <c r="J11" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="45">
-        <v>50</v>
-      </c>
+      <c r="L11" s="45"/>
       <c r="M11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="46">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="32" t="s">
-        <v>78</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3056,7 +3113,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -3079,7 +3136,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -3118,13 +3175,15 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="48" t="s">
+        <v>79</v>
+      </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
@@ -3148,7 +3207,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4618,7 +4677,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -4793,7 +4852,7 @@
         <v>2</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P6" s="32" t="s">
         <v>64</v>
@@ -4874,7 +4933,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="I7" s="45">
         <v>1</v>
@@ -4893,10 +4952,10 @@
         <v>2</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -4974,7 +5033,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -4993,7 +5052,7 @@
         <v>2</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P8" s="32" t="s">
         <v>64</v>
@@ -5061,7 +5120,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -5075,7 +5134,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I9" s="45">
         <v>1</v>
@@ -5094,10 +5153,10 @@
         <v>2</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -5162,11 +5221,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602291667</v>
+        <v>44385.633344907</v>
       </c>
       <c r="D10" s="2">
         <v>404</v>
@@ -5176,7 +5235,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I10" s="45">
         <v>1</v>
@@ -5195,10 +5254,10 @@
         <v>2</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -5263,7 +5322,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5277,7 +5336,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I11" s="45">
         <v>1</v>
@@ -5296,10 +5355,10 @@
         <v>2</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -5364,7 +5423,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5387,7 +5446,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5426,14 +5485,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -5458,7 +5517,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5564,7 +5623,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -5572,19 +5631,19 @@
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="45">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M18" s="27" t="s">
         <v>8</v>
       </c>
       <c r="N18" s="46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -5653,19 +5712,17 @@
       </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="45">
-        <v>50</v>
-      </c>
+      <c r="L19" s="45"/>
       <c r="M19" s="27" t="s">
         <v>8</v>
       </c>
@@ -5676,7 +5733,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -5745,10 +5802,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -5756,19 +5813,19 @@
       </c>
       <c r="K20" s="30"/>
       <c r="L20" s="45">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M20" s="27" t="s">
         <v>8</v>
       </c>
       <c r="N20" s="46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -5832,36 +5889,26 @@
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1" ht="72">
-      <c r="D21" s="2">
-        <v>810</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>3</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>90</v>
-      </c>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="45">
-        <v>50</v>
-      </c>
+      <c r="L21" s="45"/>
       <c r="M21" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="46">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P21" s="32" t="s">
-        <v>91</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="P21" s="32"/>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5924,36 +5971,26 @@
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1" ht="72">
-      <c r="D22" s="2">
-        <v>811</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22" s="27">
-        <v>2</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>92</v>
-      </c>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
       <c r="I22" s="45"/>
       <c r="J22" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K22" s="30"/>
-      <c r="L22" s="45">
-        <v>600</v>
-      </c>
+      <c r="L22" s="45"/>
       <c r="M22" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="46">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N22" s="46"/>
       <c r="O22" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="32" t="s">
-        <v>89</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5972,7 +6009,7 @@
       </c>
       <c r="V22" s="7">
         <f>IF(OR(AND($L22&lt;&gt;"",OR($J22=instellingen!$H$5,$J22=instellingen!$H$6,,$J22=instellingen!$H$7)),AND(ISBLANK($L22),OR($J22=instellingen!$H$3,$J22=instellingen!$H$4,))),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" s="7">
         <f>IF(ISBLANK($M22),1,0)</f>
@@ -6012,7 +6049,7 @@
       </c>
       <c r="AF22" s="8">
         <f>SUM(R22:AE22)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:32" customHeight="1" ht="72">
@@ -6146,7 +6183,9 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="G26" s="48"/>
+      <c r="G26" s="48" t="s">
+        <v>88</v>
+      </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
       <c r="J26" s="48"/>
@@ -7385,7 +7424,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7474,11 +7513,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602291667</v>
+        <v>44385.633344907</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7563,7 +7602,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7652,7 +7691,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7675,7 +7714,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -7714,7 +7753,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -7744,7 +7783,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7850,7 +7889,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -7867,10 +7906,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -7942,7 +7981,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -7959,10 +7998,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -8034,7 +8073,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -8051,10 +8090,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -8126,7 +8165,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -8143,10 +8182,10 @@
         <v>2</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -8218,7 +8257,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="I22" s="45"/>
       <c r="J22" s="29" t="s">
@@ -8238,7 +8277,7 @@
         <v>11</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -8433,7 +8472,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -9412,7 +9451,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D6" s="2">
         <v>828</v>
@@ -9422,7 +9461,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -9441,10 +9480,10 @@
         <v>2</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -9522,10 +9561,10 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="I7" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="29" t="s">
         <v>7</v>
@@ -9538,13 +9577,13 @@
         <v>8</v>
       </c>
       <c r="N7" s="46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -9619,10 +9658,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -9641,10 +9680,10 @@
         <v>2</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -9709,7 +9748,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9720,32 +9759,32 @@
       </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="I9" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="45">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M9" s="27" t="s">
         <v>8</v>
       </c>
       <c r="N9" s="46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -9810,44 +9849,32 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602291667</v>
-      </c>
-      <c r="D10" s="2">
-        <v>832</v>
-      </c>
+        <v>44385.633356481</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>4</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="I10" s="45">
-        <v>1</v>
-      </c>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="45">
-        <v>50</v>
-      </c>
+      <c r="L10" s="45"/>
       <c r="M10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="46">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="32" t="s">
-        <v>104</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -9911,44 +9938,32 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2">
-        <v>833</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="G11" s="27">
-        <v>4</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" s="45">
-        <v>1</v>
-      </c>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="45"/>
       <c r="J11" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="45">
-        <v>50</v>
-      </c>
+      <c r="L11" s="45"/>
       <c r="M11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="46">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="32" t="s">
-        <v>106</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -10012,7 +10027,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -10035,7 +10050,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -10074,13 +10089,15 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="48" t="s">
+        <v>112</v>
+      </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
@@ -10104,7 +10121,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -11722,7 +11739,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D6" s="2">
         <v>411</v>
@@ -11732,7 +11749,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -11751,10 +11768,10 @@
         <v>2</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -11832,7 +11849,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="I7" s="45">
         <v>1</v>
@@ -11851,10 +11868,10 @@
         <v>2</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -11932,7 +11949,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -11951,10 +11968,10 @@
         <v>2</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -12019,7 +12036,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -12033,7 +12050,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="I9" s="45">
         <v>1</v>
@@ -12052,10 +12069,10 @@
         <v>2</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -12120,11 +12137,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602291667</v>
+        <v>44385.633356481</v>
       </c>
       <c r="D10" s="2">
         <v>415</v>
@@ -12134,7 +12151,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="I10" s="45">
         <v>1</v>
@@ -12153,10 +12170,10 @@
         <v>2</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -12221,7 +12238,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -12235,7 +12252,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="I11" s="45">
         <v>1</v>
@@ -12254,10 +12271,10 @@
         <v>2</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -12322,7 +12339,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -12345,7 +12362,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -12384,14 +12401,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -12416,7 +12433,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -12522,7 +12539,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="I18" s="45">
         <v>1</v>
@@ -12541,10 +12558,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -12613,34 +12630,34 @@
       </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="I19" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="L19" s="45">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M19" s="27" t="s">
         <v>8</v>
       </c>
       <c r="N19" s="46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -12709,21 +12726,19 @@
       </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="I20" s="45">
         <v>1</v>
       </c>
       <c r="J20" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="45">
-        <v>50</v>
-      </c>
+      <c r="L20" s="45"/>
       <c r="M20" s="27" t="s">
         <v>8</v>
       </c>
@@ -12734,7 +12749,7 @@
         <v>11</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -12803,32 +12818,34 @@
       </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="I21" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="30"/>
+      <c r="K21" s="30" t="s">
+        <v>125</v>
+      </c>
       <c r="L21" s="45">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M21" s="27" t="s">
         <v>8</v>
       </c>
       <c r="N21" s="46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -12892,40 +12909,26 @@
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1" ht="72">
-      <c r="D22" s="2">
-        <v>826</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22" s="27">
-        <v>4</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="I22" s="45">
-        <v>1</v>
-      </c>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="45"/>
       <c r="J22" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="L22" s="45">
-        <v>50</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="45"/>
       <c r="M22" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="46">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N22" s="46"/>
       <c r="O22" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="32" t="s">
-        <v>117</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -12988,36 +12991,26 @@
       </c>
     </row>
     <row r="23" spans="1:32" customHeight="1" ht="72">
-      <c r="D23" s="2">
-        <v>827</v>
-      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="G23" s="27">
-        <v>4</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="I23" s="45">
-        <v>1</v>
-      </c>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="45"/>
       <c r="J23" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K23" s="30"/>
       <c r="L23" s="45"/>
       <c r="M23" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N23" s="46">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N23" s="46"/>
       <c r="O23" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P23" s="32" t="s">
-        <v>119</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -13128,7 +13121,9 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="G26" s="48"/>
+      <c r="G26" s="48" t="s">
+        <v>122</v>
+      </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
       <c r="J26" s="48"/>
@@ -14108,7 +14103,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -14369,7 +14364,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -14458,11 +14453,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602291667</v>
+        <v>44385.633356481</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14547,7 +14542,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -14636,7 +14631,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -14659,7 +14654,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -14698,7 +14693,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -14728,7 +14723,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -14834,7 +14829,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="I18" s="45">
         <v>1</v>
@@ -14853,10 +14848,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -14928,7 +14923,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="I19" s="45">
         <v>1</v>
@@ -14937,7 +14932,7 @@
         <v>7</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="L19" s="45">
         <v>50</v>
@@ -14949,10 +14944,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -15024,7 +15019,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="I20" s="45">
         <v>1</v>
@@ -15043,10 +15038,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -15118,7 +15113,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="I21" s="45">
         <v>1</v>
@@ -15137,10 +15132,10 @@
         <v>2</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -15212,7 +15207,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="I22" s="45">
         <v>1</v>
@@ -15221,7 +15216,7 @@
         <v>7</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="L22" s="45">
         <v>50</v>
@@ -15233,10 +15228,10 @@
         <v>2</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -15308,7 +15303,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="I23" s="45">
         <v>1</v>
@@ -15328,7 +15323,7 @@
         <v>11</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
@@ -15441,7 +15436,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -15565,7 +15560,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -15582,10 +15577,10 @@
         <v>2</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -15654,10 +15649,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="G31" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -15665,19 +15660,19 @@
       </c>
       <c r="K31" s="30"/>
       <c r="L31" s="45">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M31" s="27" t="s">
         <v>8</v>
       </c>
       <c r="N31" s="46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -15749,7 +15744,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -15766,10 +15761,10 @@
         <v>2</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -15838,10 +15833,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="G33" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="I33" s="45"/>
       <c r="J33" s="29" t="s">
@@ -16105,7 +16100,9 @@
       <c r="M37" s="47"/>
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
-      <c r="G38" s="48"/>
+      <c r="G38" s="48" t="s">
+        <v>148</v>
+      </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
       <c r="J38" s="48"/>
@@ -16460,7 +16457,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16721,7 +16718,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -16810,11 +16807,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602291667</v>
+        <v>44385.633356481</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16899,7 +16896,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -16988,7 +16985,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -17011,7 +17008,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -17050,7 +17047,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -17080,7 +17077,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -17841,7 +17838,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -17858,10 +17855,10 @@
         <v>2</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -17933,7 +17930,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -17950,10 +17947,10 @@
         <v>2</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -18025,7 +18022,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -18042,10 +18039,10 @@
         <v>2</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -18117,7 +18114,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="I33" s="45"/>
       <c r="J33" s="29" t="s">
@@ -18135,7 +18132,7 @@
         <v>11</v>
       </c>
       <c r="P33" s="32" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
@@ -18382,7 +18379,7 @@
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
       <c r="G38" s="48" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>

--- a/public/cohort/fileExcel/xlsxUIT/OPEN/WD_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/WD_OPEN.xlsx
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633344907</v>
+        <v>44387.766076389</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633344907</v>
+        <v>44387.766076389</v>
       </c>
       <c r="D10" s="2">
         <v>404</v>
@@ -7517,7 +7517,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633344907</v>
+        <v>44387.766076389</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9853,7 +9853,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633356481</v>
+        <v>44387.766076389</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -12141,7 +12141,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633356481</v>
+        <v>44387.766076389</v>
       </c>
       <c r="D10" s="2">
         <v>415</v>
@@ -14457,7 +14457,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633356481</v>
+        <v>44387.766076389</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16811,7 +16811,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633356481</v>
+        <v>44387.766076389</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
